--- a/todo-list.xlsx
+++ b/todo-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Desktop/MVA/Kernel methods/Kaggle-KM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F76F7F-B703-B54E-B8D9-DD4DF6768FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F6181B-5146-C247-9250-744B80145633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16280" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="34600" windowHeight="28800" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Kernels</t>
   </si>
@@ -50,20 +50,89 @@
     <t>Classifiers</t>
   </si>
   <si>
-    <t>Hop</t>
-  </si>
-  <si>
     <t>SVM onevsall</t>
+  </si>
+  <si>
+    <t>Linear Kernel</t>
+  </si>
+  <si>
+    <t>Polynomial</t>
+  </si>
+  <si>
+    <t>Histograms of Oriented Gradients</t>
+  </si>
+  <si>
+    <t>Scale-Invariant Feature Transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Binary Patterns </t>
+  </si>
+  <si>
+    <t>Train an autoencoder CNN</t>
+  </si>
+  <si>
+    <t>Gaussian (choose carefully sigma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisher Vector </t>
+  </si>
+  <si>
+    <t>Bag of words</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>https://lear.inrialpes.fr/people/verbeek/mlcr.slides.14.15/4.FisherVectors.pdf 
+p.343 du cours</t>
+  </si>
+  <si>
+    <t>Kernel descriptors</t>
+  </si>
+  <si>
+    <t>https://papers.nips.cc/paper_files/paper/2010/file/4558dbb6f6f8bb2e16d03b85bde76e2c-Paper.pdf</t>
+  </si>
+  <si>
+    <t>SVM allvsall</t>
+  </si>
+  <si>
+    <t>Error-Correcting Output Codes</t>
+  </si>
+  <si>
+    <t>https://github.com/christianversloot/machine-learning-articles/blob/main/using-error-correcting-output-codes-for-multiclass-svm-classification.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Classification with Segmentation Graph Kernels </t>
+  </si>
+  <si>
+    <t>https://www.di.ens.fr/~fbach/harchaoui_bach_cvpr07.pdf</t>
+  </si>
+  <si>
+    <t>Multiple Kernel Learning</t>
+  </si>
+  <si>
+    <t>https://is.mpg.de/fileadmin/user_upload/files/publications/Gehler-2009-PHDThesis_[0].pdf
+Section 7.4
+Example of algorithm: https://www.jmlr.org/papers/volume7/sonnenburg06a/sonnenburg06a.pdf
+Implementation: https://github.com/xnevs/msvm/blob/master/msvm.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,10 +347,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -292,6 +362,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,11 +374,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,39 +712,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5360646-32FE-874F-A1B2-1F28AA6F3876}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="L2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>4</v>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="3"/>
@@ -681,10 +770,13 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -694,10 +786,13 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -707,10 +802,13 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -720,10 +818,13 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -733,10 +834,11 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -746,10 +848,11 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -759,12 +862,15 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -774,10 +880,13 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -787,10 +896,15 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
+      <c r="L11" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -800,10 +914,13 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -813,10 +930,13 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
+      <c r="L13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="9"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -826,10 +946,11 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="9"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -839,10 +960,11 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -852,10 +974,11 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="9"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -865,13 +988,14 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>5</v>
+      <c r="B18" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="2"/>
@@ -882,10 +1006,13 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -895,10 +1022,13 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -908,10 +1038,15 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C21" s="9"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -921,10 +1056,13 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
+      <c r="L21" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -934,10 +1072,11 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="9"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -947,10 +1086,11 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -960,10 +1100,11 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -973,10 +1114,11 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="14"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -986,10 +1128,11 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -999,10 +1142,11 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1012,10 +1156,11 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="15"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1025,6 +1170,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1032,6 +1178,10 @@
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A3:A9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L11" r:id="rId1" xr:uid="{4B381DEC-3BB7-B740-A86B-389D10AF58BA}"/>
+    <hyperlink ref="L21" r:id="rId2" display="https://is.mpg.de/fileadmin/user_upload/files/publications/Gehler-2009-PHDThesis_[0].pdf_x000a_Section 7.4" xr:uid="{EBB90BF3-BB24-774D-AFE8-3CBCAE52C46E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/todo-list.xlsx
+++ b/todo-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Desktop/MVA/Kernel methods/Kaggle-KM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Projects/Kaggle-KM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F6181B-5146-C247-9250-744B80145633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD55303-D9C8-8744-AF80-D44DBCDF1ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="34600" windowHeight="28800" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16380" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Kernels</t>
   </si>
@@ -115,6 +115,15 @@
 Section 7.4
 Example of algorithm: https://www.jmlr.org/papers/volume7/sonnenburg06a/sonnenburg06a.pdf
 Implementation: https://github.com/xnevs/msvm/blob/master/msvm.py</t>
+  </si>
+  <si>
+    <t>Sigmoid kernel</t>
+  </si>
+  <si>
+    <t>Laplacian kernel</t>
+  </si>
+  <si>
+    <t>PCA</t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +160,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -351,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -365,6 +380,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,9 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -715,7 +732,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,7 +742,9 @@
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -744,8 +763,12 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -755,10 +778,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8"/>
@@ -773,7 +796,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -789,8 +812,8 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9"/>
@@ -805,7 +828,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
@@ -823,7 +846,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
@@ -837,7 +860,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
@@ -851,7 +874,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="12"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2"/>
@@ -865,7 +888,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -883,7 +906,7 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
@@ -896,12 +919,12 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -917,7 +940,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
@@ -935,8 +958,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -949,7 +974,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
       <c r="D15" s="2"/>
@@ -963,7 +988,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="D16" s="2"/>
@@ -977,7 +1002,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="12"/>
       <c r="C17" s="9"/>
       <c r="D17" s="2"/>
@@ -991,10 +1016,10 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="9"/>
@@ -1009,8 +1034,8 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="9"/>
@@ -1025,7 +1050,7 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1068,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -1056,12 +1081,12 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="2"/>
@@ -1075,7 +1100,7 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
       <c r="D23" s="2"/>
@@ -1089,7 +1114,7 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="2"/>
@@ -1103,7 +1128,7 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="2"/>
@@ -1117,7 +1142,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="2"/>
@@ -1131,7 +1156,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2"/>
@@ -1145,7 +1170,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2"/>
@@ -1159,7 +1184,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2"/>

--- a/todo-list.xlsx
+++ b/todo-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Projects/Kaggle-KM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD55303-D9C8-8744-AF80-D44DBCDF1ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2723BA42-7A72-9C49-B8C1-9BEF53738DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16380" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Kernels</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>Trop dur</t>
+  </si>
+  <si>
+    <t>Déjà fait</t>
+  </si>
+  <si>
+    <t>À faire</t>
   </si>
 </sst>
 </file>
@@ -147,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +175,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -366,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -394,6 +421,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -729,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5360646-32FE-874F-A1B2-1F28AA6F3876}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,7 +861,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="9"/>
@@ -907,7 +939,7 @@
     </row>
     <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="9"/>
@@ -941,7 +973,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="9"/>
@@ -1069,7 +1101,7 @@
     </row>
     <row r="21" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="9"/>
@@ -1197,6 +1229,24 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="20"/>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="21"/>
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="22"/>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A18:A29"/>

--- a/todo-list.xlsx
+++ b/todo-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Projects/Kaggle-KM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2723BA42-7A72-9C49-B8C1-9BEF53738DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE828A-78D0-0546-BBD5-0E8D2F70E54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16380" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16280" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Kernels</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>À faire</t>
+  </si>
+  <si>
+    <t>Find the optimal set of features, then plot the Explained variance as a func of ,number of components to determine the best kernel for PCA and then test best kernel for SVM</t>
   </si>
 </sst>
 </file>
@@ -412,6 +415,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,11 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -764,7 +767,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,7 +813,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -828,7 +831,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -844,7 +847,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -860,8 +863,8 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="9"/>
@@ -878,7 +881,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
@@ -892,7 +895,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
@@ -906,7 +909,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="12"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2"/>
@@ -920,7 +923,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -938,8 +941,8 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="9"/>
@@ -956,7 +959,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
@@ -972,8 +975,8 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="9"/>
@@ -990,7 +993,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="15" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1009,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
       <c r="D15" s="2"/>
@@ -1020,7 +1023,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="D16" s="2"/>
@@ -1034,7 +1037,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="12"/>
       <c r="C17" s="9"/>
       <c r="D17" s="2"/>
@@ -1048,7 +1051,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -1066,7 +1069,7 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
@@ -1082,7 +1085,7 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1100,8 +1103,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="9"/>
@@ -1118,7 +1121,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="2"/>
@@ -1132,7 +1135,7 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
       <c r="D23" s="2"/>
@@ -1146,7 +1149,7 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="2"/>
@@ -1160,7 +1163,7 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="2"/>
@@ -1174,7 +1177,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="2"/>
@@ -1188,7 +1191,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2"/>
@@ -1202,7 +1205,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2"/>
@@ -1216,7 +1219,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2"/>
@@ -1229,20 +1232,25 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="20"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="21"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="22"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="1" t="s">
         <v>30</v>
       </c>

--- a/todo-list.xlsx
+++ b/todo-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Projects/Kaggle-KM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE828A-78D0-0546-BBD5-0E8D2F70E54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2204A5-D061-884F-A2BA-2DFAE410BF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16280" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
   </bookViews>
@@ -159,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +196,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -396,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -429,6 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -766,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5360646-32FE-874F-A1B2-1F28AA6F3876}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,7 +839,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="9"/>
@@ -960,7 +967,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="9"/>

--- a/todo-list.xlsx
+++ b/todo-list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Projects/Kaggle-KM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Desktop/Projects/Kaggle-KM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2204A5-D061-884F-A2BA-2DFAE410BF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12D2241-D001-1C46-8DD6-15299EC81DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16280" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Kernels</t>
   </si>
@@ -136,6 +136,72 @@
   </si>
   <si>
     <t>Find the optimal set of features, then plot the Explained variance as a func of ,number of components to determine the best kernel for PCA and then test best kernel for SVM</t>
+  </si>
+  <si>
+    <t>Experiments</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>CVXOPT</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Raw features</t>
+  </si>
+  <si>
+    <t>Bow features</t>
+  </si>
+  <si>
+    <t>FIsherVect features</t>
+  </si>
+  <si>
+    <t>Dim PCA without norm</t>
+  </si>
+  <si>
+    <t>Dim PCA with norm</t>
+  </si>
+  <si>
+    <t>Kernel PCA</t>
+  </si>
+  <si>
+    <t>Kernel SVM</t>
+  </si>
+  <si>
+    <t>Combinaison</t>
+  </si>
+  <si>
+    <t>RBF parameter for PCA</t>
+  </si>
+  <si>
+    <t>RBF parameter for SVM</t>
+  </si>
+  <si>
+    <t>Chi2 parameter for PCA</t>
+  </si>
+  <si>
+    <t>Chi2 parameter for SVM</t>
+  </si>
+  <si>
+    <t>Laplacian parameter for SVM</t>
+  </si>
+  <si>
+    <t>Laplacian parameter for PCA</t>
+  </si>
+  <si>
+    <t>k on Fisher vect</t>
+  </si>
+  <si>
+    <t>k on BoW</t>
+  </si>
+  <si>
+    <t>Impact of C on linear SVM</t>
+  </si>
+  <si>
+    <t>Impact of C on gaussian SCM</t>
   </si>
 </sst>
 </file>
@@ -198,7 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.749992370372631"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,7 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -771,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5360646-32FE-874F-A1B2-1F28AA6F3876}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,11 +854,14 @@
     <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -818,9 +887,15 @@
       <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="N2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -836,10 +911,14 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24" t="s">
+      <c r="N3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="9"/>
@@ -852,9 +931,13 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -868,9 +951,13 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
       <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
@@ -886,9 +973,13 @@
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
@@ -900,9 +991,13 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
@@ -914,9 +1009,13 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
       <c r="B9" s="12"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2"/>
@@ -928,9 +1027,13 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="N9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -946,10 +1049,14 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="20" t="s">
+      <c r="N10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="9"/>
@@ -964,10 +1071,14 @@
       <c r="L11" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24" t="s">
+      <c r="N11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="9"/>
@@ -980,9 +1091,13 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="N12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
       <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
@@ -998,9 +1113,13 @@
       <c r="L13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="N13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
       <c r="B14" s="15" t="s">
         <v>27</v>
       </c>
@@ -1014,9 +1133,13 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="N14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
       <c r="D15" s="2"/>
@@ -1028,9 +1151,13 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="N15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="D16" s="2"/>
@@ -1042,9 +1169,13 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="N16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
       <c r="B17" s="12"/>
       <c r="C17" s="9"/>
       <c r="D17" s="2"/>
@@ -1056,9 +1187,13 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="N17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -1074,9 +1209,13 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="N18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
       <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
@@ -1090,9 +1229,13 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="N19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1108,9 +1251,13 @@
       <c r="L20" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="N20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>23</v>
       </c>
@@ -1126,9 +1273,13 @@
       <c r="L21" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="N21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="2"/>
@@ -1140,9 +1291,13 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="N22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
       <c r="D23" s="2"/>
@@ -1155,8 +1310,8 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="2"/>
@@ -1169,8 +1324,8 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="2"/>
@@ -1183,8 +1338,8 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="2"/>
@@ -1197,8 +1352,8 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2"/>
@@ -1211,8 +1366,8 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2"/>
@@ -1225,8 +1380,8 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2"/>
@@ -1239,7 +1394,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>

--- a/todo-list.xlsx
+++ b/todo-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Desktop/Projects/Kaggle-KM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12D2241-D001-1C46-8DD6-15299EC81DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0D06AF-EB64-D446-893A-B029FBECC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16280" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Kernels</t>
   </si>
@@ -202,6 +202,51 @@
   </si>
   <si>
     <t>Impact of C on gaussian SCM</t>
+  </si>
+  <si>
+    <t>Works better</t>
+  </si>
+  <si>
+    <t>onevsone</t>
+  </si>
+  <si>
+    <t>hog and raw (lbp only is bad)</t>
+  </si>
+  <si>
+    <t>a priori hog + raw with k = 20</t>
+  </si>
+  <si>
+    <t>gaussian or laplacian</t>
+  </si>
+  <si>
+    <t>No influence</t>
+  </si>
+  <si>
+    <t>New experiments</t>
+  </si>
+  <si>
+    <t>Obeservations</t>
+  </si>
+  <si>
+    <t>Dimensions PCA</t>
+  </si>
+  <si>
+    <t>Bow number of k</t>
+  </si>
+  <si>
+    <t>RBF parameter SVM</t>
+  </si>
+  <si>
+    <t>Laplacian parameter SVM</t>
+  </si>
+  <si>
+    <t>Chi2 parameter SVM</t>
+  </si>
+  <si>
+    <t>Fishervector number k with hog and sift and gaussian SVM</t>
+  </si>
+  <si>
+    <t>Fishervector number k with hog and sift and linear  SVM</t>
   </si>
 </sst>
 </file>
@@ -269,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -452,6 +497,107 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -468,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -502,6 +648,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -837,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5360646-32FE-874F-A1B2-1F28AA6F3876}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -856,12 +1010,15 @@
     <col min="12" max="12" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -893,8 +1050,14 @@
       <c r="O2" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
@@ -914,9 +1077,15 @@
       <c r="N3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="27"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="21" t="s">
         <v>8</v>
@@ -934,9 +1103,15 @@
       <c r="N4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="29"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
@@ -954,9 +1129,15 @@
       <c r="N5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="29"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="20" t="s">
         <v>16</v>
@@ -976,9 +1157,15 @@
       <c r="N6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="29"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9"/>
@@ -995,8 +1182,12 @@
         <v>38</v>
       </c>
       <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="29"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9"/>
@@ -1013,8 +1204,12 @@
         <v>39</v>
       </c>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="29"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="12"/>
       <c r="C9" s="9"/>
@@ -1031,8 +1226,12 @@
         <v>40</v>
       </c>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="29"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
@@ -1052,9 +1251,13 @@
       <c r="N10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="O10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
+    </row>
+    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="21" t="s">
         <v>12</v>
@@ -1075,8 +1278,10 @@
         <v>42</v>
       </c>
       <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="21" t="s">
         <v>13</v>
@@ -1095,8 +1300,10 @@
         <v>43</v>
       </c>
       <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="28"/>
+      <c r="R12" s="29"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="16" t="s">
         <v>21</v>
@@ -1116,9 +1323,13 @@
       <c r="N13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="29"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="15" t="s">
         <v>27</v>
@@ -1137,8 +1348,10 @@
         <v>45</v>
       </c>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
@@ -1155,8 +1368,10 @@
         <v>46</v>
       </c>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9"/>
@@ -1173,8 +1388,10 @@
         <v>47</v>
       </c>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
+    </row>
+    <row r="17" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="12"/>
       <c r="C17" s="9"/>
@@ -1191,8 +1408,10 @@
         <v>49</v>
       </c>
       <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>3</v>
       </c>
@@ -1213,8 +1432,10 @@
         <v>48</v>
       </c>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="15" t="s">
         <v>18</v>
@@ -1233,8 +1454,10 @@
         <v>50</v>
       </c>
       <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q19" s="28"/>
+      <c r="R19" s="29"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="11" t="s">
         <v>19</v>
@@ -1255,8 +1478,10 @@
         <v>51</v>
       </c>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29"/>
+    </row>
+    <row r="21" spans="1:18" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>23</v>
@@ -1277,8 +1502,10 @@
         <v>52</v>
       </c>
       <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="30"/>
+      <c r="R21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
@@ -1296,7 +1523,7 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
@@ -1310,7 +1537,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
@@ -1324,7 +1551,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
@@ -1338,7 +1565,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
@@ -1352,7 +1579,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
@@ -1366,7 +1593,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
@@ -1380,7 +1607,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9"/>
@@ -1394,7 +1621,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>

--- a/todo-list.xlsx
+++ b/todo-list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Desktop/Projects/Kaggle-KM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0D06AF-EB64-D446-893A-B029FBECC650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8450451-1152-C84D-8E28-A752EC037F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16380" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>Kernels</t>
   </si>
@@ -213,9 +213,6 @@
     <t>hog and raw (lbp only is bad)</t>
   </si>
   <si>
-    <t>a priori hog + raw with k = 20</t>
-  </si>
-  <si>
     <t>gaussian or laplacian</t>
   </si>
   <si>
@@ -247,6 +244,108 @@
   </si>
   <si>
     <t>Fishervector number k with hog and sift and linear  SVM</t>
+  </si>
+  <si>
+    <t>a priori hog + raw ou raw+sift with k = 20 full linear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hog and raw </t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>With norm 500 dim</t>
+  </si>
+  <si>
+    <t>Pas de PCA</t>
+  </si>
+  <si>
+    <t>Naze</t>
+  </si>
+  <si>
+    <t>sigma= 2 for hog, naze avec sift</t>
+  </si>
+  <si>
+    <t>C with gaussian for hog</t>
+  </si>
+  <si>
+    <t>C = 5 to 100</t>
+  </si>
+  <si>
+    <t>sigma = 10</t>
+  </si>
+  <si>
+    <t>sigma = 0.1</t>
+  </si>
+  <si>
+    <t>Qui ont bien marché</t>
+  </si>
+  <si>
+    <t>1: raw linear pas de PCA</t>
+  </si>
+  <si>
+    <t>2: hog linear pas de PCA</t>
+  </si>
+  <si>
+    <t>5: hog + raw linear pas de PCA</t>
+  </si>
+  <si>
+    <t>7: hog + SIFT linear pas de PCA</t>
+  </si>
+  <si>
+    <t>8: raw + SIFT linear pas de PCA</t>
+  </si>
+  <si>
+    <t>9: all pas de PCA</t>
+  </si>
+  <si>
+    <t>13: bow raw + sift k=20 linear</t>
+  </si>
+  <si>
+    <t>20: Hog RBF sigma=5</t>
+  </si>
+  <si>
+    <t>21: Hog RBF sigma = 10</t>
+  </si>
+  <si>
+    <t>35-36: Hog Laplacian sigma = 5/10</t>
+  </si>
+  <si>
+    <t>37-38: Hog Chi2 sigma = 0.1</t>
+  </si>
+  <si>
+    <t>Bow: raw sift + linear kernel + C = 5 + k =20</t>
+  </si>
+  <si>
+    <t>Hog RBF + C= 5 + sigma = 10</t>
+  </si>
+  <si>
+    <t>Hog chi2 + C=5 + sigma =0.1</t>
+  </si>
+  <si>
+    <t>Raw + sift + linear C = 5</t>
+  </si>
+  <si>
+    <t>Fisher Vector:  hog + gaussian + sigma = 5 + C = 5</t>
+  </si>
+  <si>
+    <t>and  try with onevsall</t>
+  </si>
+  <si>
+    <t>k = 10 mais médiocre</t>
+  </si>
+  <si>
+    <t>k = 10 pas mal (4)</t>
+  </si>
+  <si>
+    <t>onevsone pas mal (8)</t>
+  </si>
+  <si>
+    <t>pas mal onevsone (9)</t>
+  </si>
+  <si>
+    <t>pas mal onevsone (10)</t>
   </si>
 </sst>
 </file>
@@ -639,6 +738,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,14 +755,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -991,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5360646-32FE-874F-A1B2-1F28AA6F3876}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,15 +1109,18 @@
     <col min="12" max="12" width="124.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="1"/>
     <col min="17" max="17" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="1"/>
+    <col min="20" max="20" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1050,15 +1152,21 @@
       <c r="O2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="T2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1080,13 +1188,21 @@
       <c r="O3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="27"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="Q3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
       <c r="B4" s="21" t="s">
         <v>8</v>
       </c>
@@ -1106,13 +1222,21 @@
       <c r="O4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="R4" s="29"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="Q4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -1132,13 +1256,21 @@
       <c r="O5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="29"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="Q5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="26">
+        <v>10</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
       <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
@@ -1158,15 +1290,23 @@
         <v>37</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="29"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="Q6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="26">
+        <v>5</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2"/>
@@ -1181,14 +1321,24 @@
       <c r="N7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="Q7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="29"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="O7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2"/>
@@ -1203,14 +1353,20 @@
       <c r="N8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="Q8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="29"/>
-    </row>
-    <row r="9" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="O8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="25"/>
+      <c r="U8" s="26"/>
+    </row>
+    <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
       <c r="B9" s="12"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2"/>
@@ -1225,14 +1381,22 @@
       <c r="N9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="Q9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="29"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="O9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1252,13 +1416,19 @@
         <v>41</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
-    </row>
-    <row r="11" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
       <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
@@ -1278,11 +1448,13 @@
         <v>42</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
       <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
@@ -1300,11 +1472,11 @@
         <v>43</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="29"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
       <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
@@ -1324,13 +1496,11 @@
         <v>44</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="29"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
       <c r="B14" s="15" t="s">
         <v>27</v>
       </c>
@@ -1348,11 +1518,9 @@
         <v>45</v>
       </c>
       <c r="O14" s="2"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
       <c r="D15" s="2"/>
@@ -1368,11 +1536,9 @@
         <v>46</v>
       </c>
       <c r="O15" s="2"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="29"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="D16" s="2"/>
@@ -1388,11 +1554,9 @@
         <v>47</v>
       </c>
       <c r="O16" s="2"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="29"/>
-    </row>
-    <row r="17" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+    </row>
+    <row r="17" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
       <c r="B17" s="12"/>
       <c r="C17" s="9"/>
       <c r="D17" s="2"/>
@@ -1408,11 +1572,9 @@
         <v>49</v>
       </c>
       <c r="O17" s="2"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="29"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -1432,11 +1594,9 @@
         <v>48</v>
       </c>
       <c r="O18" s="2"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
       <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
@@ -1454,11 +1614,9 @@
         <v>50</v>
       </c>
       <c r="O19" s="2"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="29"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1478,11 +1636,9 @@
         <v>51</v>
       </c>
       <c r="O20" s="2"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="29"/>
-    </row>
-    <row r="21" spans="1:18" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+    </row>
+    <row r="21" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
       <c r="B21" s="20" t="s">
         <v>23</v>
       </c>
@@ -1502,11 +1658,9 @@
         <v>52</v>
       </c>
       <c r="O21" s="2"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="2"/>
@@ -1523,8 +1677,8 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
       <c r="D23" s="2"/>
@@ -1537,8 +1691,8 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="2"/>
@@ -1551,8 +1705,8 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="2"/>
@@ -1564,9 +1718,18 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
+      <c r="N25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="2"/>
@@ -1578,9 +1741,15 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
+      <c r="O26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2"/>
@@ -1592,9 +1761,15 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
+      <c r="O27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2"/>
@@ -1606,9 +1781,15 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="O28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
       <c r="B29" s="12"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2"/>
@@ -1620,10 +1801,21 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">

--- a/todo-list.xlsx
+++ b/todo-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hippolyte/Desktop/Projects/Kaggle-KM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8450451-1152-C84D-8E28-A752EC037F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777E20BD-0FAC-2340-B61A-4F4DC455DA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16380" xr2:uid="{19A0A20A-D9F1-0844-93F0-7B69648C03D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>Kernels</t>
   </si>
@@ -346,6 +346,21 @@
   </si>
   <si>
     <t>pas mal onevsone (10)</t>
+  </si>
+  <si>
+    <t>Last experiments</t>
+  </si>
+  <si>
+    <t>What best normalize data (between 0 and 1) or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change C ? </t>
+  </si>
+  <si>
+    <t>Put in submit mode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> take type with best scores and average with less of the other type</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5360646-32FE-874F-A1B2-1F28AA6F3876}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,8 +1134,8 @@
     <col min="22" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1164,8 +1179,11 @@
       <c r="U2" s="29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
@@ -1200,8 +1218,11 @@
       <c r="U3" s="26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="21" t="s">
         <v>8</v>
@@ -1234,8 +1255,11 @@
       <c r="U4" s="26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="15" t="s">
         <v>9</v>
@@ -1268,8 +1292,11 @@
       <c r="U5" s="26" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="20" t="s">
         <v>16</v>
@@ -1304,8 +1331,11 @@
       <c r="U6" s="26" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9"/>
@@ -1337,7 +1367,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9"/>
@@ -1365,7 +1395,7 @@
       <c r="T8" s="25"/>
       <c r="U8" s="26"/>
     </row>
-    <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="12"/>
       <c r="C9" s="9"/>
@@ -1395,7 +1425,7 @@
       </c>
       <c r="U9" s="26"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1457,7 @@
       <c r="T10" s="25"/>
       <c r="U10" s="26"/>
     </row>
-    <row r="11" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="21" t="s">
         <v>12</v>
@@ -1453,7 +1483,7 @@
       <c r="T11" s="25"/>
       <c r="U11" s="26"/>
     </row>
-    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="21" t="s">
         <v>13</v>
@@ -1475,7 +1505,7 @@
       <c r="T12" s="27"/>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="16" t="s">
         <v>21</v>
@@ -1499,7 +1529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="15" t="s">
         <v>27</v>
@@ -1519,7 +1549,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9"/>
@@ -1537,7 +1567,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9"/>
